--- a/AS400 Programs/File layouts.xlsx
+++ b/AS400 Programs/File layouts.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\(R) Active Projects\HR disconnect\John Tutton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-hub\AS400 Programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
